--- a/Documents/TongHop/CK/01_Documents/ReleasePlan.xlsx
+++ b/Documents/TongHop/CK/01_Documents/ReleasePlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
   <si>
     <t>Phân công</t>
   </si>
@@ -110,12 +110,6 @@
     <t>Tạo màn hình</t>
   </si>
   <si>
-    <t>Tài liệu hướng dẫn và store procedure</t>
-  </si>
-  <si>
-    <t>Viết unit test</t>
-  </si>
-  <si>
     <t>Sprint 4</t>
   </si>
   <si>
@@ -125,31 +119,34 @@
     <t>Phân công chức năng đăng ký và review</t>
   </si>
   <si>
-    <t>Phân công chức năng đổi mật khẩu</t>
-  </si>
-  <si>
     <t>Sprint 5</t>
   </si>
   <si>
     <t>Sprint 6</t>
   </si>
   <si>
-    <t>Phân công chức năng đăng xuất</t>
-  </si>
-  <si>
     <t>Viết tài liệu hướng dẫn</t>
   </si>
   <si>
-    <t>Phân công chức năng hiển thị bài tập</t>
-  </si>
-  <si>
-    <t>Phân công chức năng theo dõi quá trình học</t>
-  </si>
-  <si>
     <t>Sprint 7</t>
   </si>
   <si>
     <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Review, build tự động</t>
+  </si>
+  <si>
+    <t>Phân công chức năng đổi mật khẩu, cập nhật báo cáo</t>
+  </si>
+  <si>
+    <t>Phân công chức năng đăng xuất, cập nhật báo cáo</t>
+  </si>
+  <si>
+    <t>Phân công chức năng hiển thị bài tập, cập nhật báo cáo</t>
+  </si>
+  <si>
+    <t>Phân công chức năng theo dõi quá trình học, cập nhật báo cáo</t>
   </si>
 </sst>
 </file>
@@ -205,7 +202,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +217,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,27 +289,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -308,6 +323,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -584,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,730 +639,730 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="C31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="C32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="C35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="C36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="C38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="C39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B40" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="C40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="C56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="6">
+      <c r="C57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="8">
         <v>0.5</v>
       </c>
     </row>
